--- a/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB30B2C-9C64-44D6-8859-4B3AD97BD1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD08A783-DD09-4F64-8A04-F1C19801E6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>1 - 2(F) - …</t>
-  </si>
-  <si>
-    <t>1 - 2(T) - …</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Req02_L03</t>
   </si>
   <si>
-    <t>&lt;Req02 CFG &gt;</t>
-  </si>
-  <si>
     <t>Proiectaţi şi implementaţi o aplicaţie Java pentru rezolvarea problemei propuse. Se va evidenţia o arhitectură stratificată.</t>
   </si>
   <si>
@@ -157,9 +148,6 @@
   </si>
   <si>
     <t xml:space="preserve">Lab03. White-box Testing. Code Coverage </t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
   </si>
   <si>
     <t>#TCs run</t>
@@ -213,27 +201,6 @@
     <t>F02</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">F02. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>cautarea filmelor care au un anumit regizor (sau parti din numele regizorului).</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">F02. Covered source code </t>
   </si>
   <si>
@@ -252,28 +219,10 @@
     <t>F02_TC02</t>
   </si>
   <si>
-    <t>F02_Cond01 &gt; 100</t>
-  </si>
-  <si>
-    <t>F02_Cond02 &lt; 20</t>
-  </si>
-  <si>
-    <t>F02_Cond03 == i</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
-  </si>
-  <si>
     <t>F02_P01</t>
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -500,12 +449,153 @@
       <t xml:space="preserve"> Verificarea totalul valutar la sfarsitul zilei (la inchiderea ambelor ferestre) in functie de tipul platii</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">F02. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Verificarea totalul valutar la sfarsitul zilei (la inchiderea ambelor ferestre) in functie de tipul platii</t>
+    </r>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">F02. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verificarea totalul valutar la sfarsitul zilei (la inchiderea ambelor ferestre) in functie de tipul platii</t>
+    </r>
+  </si>
+  <si>
+    <t>1 - 2 - 3(Yes) - 5</t>
+  </si>
+  <si>
+    <t>1 - 2 - 3(No) - 4(Yes) - 5</t>
+  </si>
+  <si>
+    <t>1 - 2 - 3(No) - 4(No) - 6 - 7 - 8(No) - 10 - 5</t>
+  </si>
+  <si>
+    <t>1 - 2 - 3(No) - 4(No) - 6 - 7 - 8(Yes) - 9 - 10 - 5</t>
+  </si>
+  <si>
+    <t>13 - 10 + 2 = 5</t>
+  </si>
+  <si>
+    <t>4 + 1 = 5</t>
+  </si>
+  <si>
+    <t>l == null</t>
+  </si>
+  <si>
+    <t>l.size() == 0</t>
+  </si>
+  <si>
+    <t>p.getType().equals(type)</t>
+  </si>
+  <si>
+    <t>type: PaymentType</t>
+  </si>
+  <si>
+    <t>total: float</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 6, 7, 8, 9, 10, 5</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Cash: (1, Card, 12.33)</t>
+  </si>
+  <si>
+    <t>Cash: (1, null, 15)</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>paymentList</t>
+  </si>
+  <si>
+    <t>(1, Card, 12.33)</t>
+  </si>
+  <si>
+    <t>(1, null, 15)</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Cash: null</t>
+  </si>
+  <si>
+    <t>Cash: []</t>
+  </si>
+  <si>
+    <t>1 - 2- 3 - 5</t>
+  </si>
+  <si>
+    <t>1 -2 - 3 -4 - 5</t>
+  </si>
+  <si>
+    <t>1 - 2 - 3 - 4 - 6 - 7 - 8</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>Card: (1, Card, 10), Card: (2, Card, 15)</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 6, 7, 8, 9, 10, 8, 9, 10, 5</t>
+  </si>
+  <si>
+    <t>Loop condition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +730,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -715,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1174,11 +1270,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,9 +1343,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1233,9 +1374,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1244,15 +1382,11 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1271,6 +1405,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1280,53 +1415,122 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1337,23 +1541,86 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1376,12 +1643,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1397,9 +1658,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1407,61 +1665,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1469,8 +1676,11 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,22 +1704,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
+      <xdr:colOff>281610</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>538083</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6187" name="Picture 1">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD118F2C-0DC4-CEF0-A1CC-644655ED49A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,49 +1728,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="567690" y="1211580"/>
-          <a:ext cx="4442460" cy="2369820"/>
+          <a:off x="281610" y="1225826"/>
+          <a:ext cx="3867690" cy="3362794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1568,22 +1748,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
+      <xdr:colOff>311199</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:rowOff>61704</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:colOff>498195</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6188" name="Picture 4">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C5865E-4FAC-C91D-744C-65E5346D7031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,49 +1772,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5208270" y="1588770"/>
-          <a:ext cx="4724400" cy="4168140"/>
+          <a:off x="4521249" y="1585704"/>
+          <a:ext cx="4911396" cy="6045251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1934,8 +2084,8 @@
   </sheetPr>
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,49 +2097,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>72</v>
+      <c r="B2" s="37" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
+        <v>33</v>
+      </c>
+      <c r="O5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>66</v>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
@@ -1997,13 +2147,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="O7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="29">
+      <c r="O7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="26">
         <v>236</v>
       </c>
     </row>
@@ -2012,44 +2162,44 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="O8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="29">
+      <c r="O8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="26">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="O9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="29">
+      <c r="O9" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="26">
         <v>236</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
-        <v>92</v>
+      <c r="B11" s="35" t="s">
+        <v>81</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2082,162 +2232,161 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
+      <c r="B3" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="Q6" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
+      <c r="B6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="I6" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="Q7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="47" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="I8" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="36" t="s">
-        <v>1</v>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="32">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>32</v>
+      <c r="B9" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D9" s="46"/>
       <c r="E9" s="46"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="40"/>
-      <c r="Q9" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="36" t="s">
-        <v>1</v>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="I9" s="36"/>
+      <c r="Q9" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="32" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>33</v>
+      <c r="B10" s="33" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-      <c r="Q10" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="47" t="s">
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="Q10" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="47"/>
-      <c r="T10" s="36" t="s">
-        <v>1</v>
+      <c r="S10" s="56"/>
+      <c r="T10" s="32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>34</v>
+      <c r="B11" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="46" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="46"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="46" t="s">
@@ -2245,18 +2394,18 @@
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="46"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="46" t="s">
@@ -2264,24 +2413,18 @@
       </c>
       <c r="D13" s="46"/>
       <c r="E13" s="46"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-      <c r="Q13" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="46" t="s">
@@ -2289,164 +2432,170 @@
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="Q14" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
-      <c r="Q15" s="34" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="Q15" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="60" t="s">
+      <c r="R15" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
-      <c r="Q16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="Q16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="R16" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
-      <c r="Q17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="R17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="Q17" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
-      <c r="Q18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="Q18" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="59" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="Q19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="R19" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
-      <c r="Q20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
-      <c r="Q21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q14:T14"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2460,17 +2609,9 @@
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="I6:O6"/>
-    <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="Q7:T7"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2483,480 +2624,612 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AH14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="24" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" customWidth="1"/>
+    <col min="20" max="20" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="10.42578125" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" customWidth="1"/>
+    <col min="26" max="26" width="0.28515625" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" customWidth="1"/>
+    <col min="28" max="28" width="3.42578125" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" customWidth="1"/>
+    <col min="30" max="30" width="3.42578125" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.28515625" customWidth="1"/>
+    <col min="33" max="33" width="5.140625" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="11"/>
+      <c r="D1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+    </row>
+    <row r="7" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="80"/>
+      <c r="AE7" s="80"/>
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="80"/>
+      <c r="AH7" s="80"/>
+    </row>
+    <row r="8" spans="2:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="77"/>
+      <c r="C8" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="83"/>
+      <c r="J8" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="W8" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="X8" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
+      <c r="AB8" s="80">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="80">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="80">
+        <v>2</v>
+      </c>
+      <c r="AE8" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF8" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG8" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH8" s="80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="77"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="86"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="68"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+    </row>
+    <row r="10" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" s="66">
+      <c r="C10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="14">
+        <v>12.33</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="74"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="18"/>
+    </row>
+    <row r="11" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+    </row>
+    <row r="12" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="20">
         <v>0</v>
       </c>
-      <c r="W8" s="66">
-        <v>1</v>
-      </c>
-      <c r="X8" s="66">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z8" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA8" s="66" t="s">
+      <c r="E12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="73"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="N12" s="74"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="71"/>
+      <c r="AB12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG12" s="18"/>
+      <c r="AH12" s="18"/>
+    </row>
+    <row r="13" spans="2:34" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="75"/>
+      <c r="M13" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="74"/>
+      <c r="O13" s="75"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="72"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="72"/>
+      <c r="AB13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG13" s="18"/>
+      <c r="AH13" s="18"/>
+    </row>
+    <row r="14" spans="2:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="14">
         <v>25</v>
       </c>
-      <c r="AB8" s="66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="E14" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="75"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="72"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="72"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="18"/>
+      <c r="AG14" s="18"/>
+      <c r="AH14" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="50">
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:U7"/>
+    <mergeCell ref="V7:AA7"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="E6:AH6"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AH8:AH9"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="Q10:U10"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="Y8:AA9"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Q9:U9"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2969,8 +3242,8 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2983,78 +3256,72 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
+      <c r="B1" s="11"/>
+      <c r="D1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
+      <c r="B3" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="89" t="s">
+      <c r="D4" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="89" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="97"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="92"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3062,162 +3329,102 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
-        <v>9</v>
-      </c>
-      <c r="C6" s="98" t="s">
-        <v>47</v>
+    <row r="6" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <v>10</v>
-      </c>
-      <c r="C7" s="98"/>
+        <v>48</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="104"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="104"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="22">
+        <v>12.33</v>
+      </c>
+      <c r="L6" s="21">
+        <v>12.33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>2</v>
+      </c>
+      <c r="C7" s="93"/>
       <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="23">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23">
-        <v>6</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="90"/>
-      <c r="K8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
-        <v>12</v>
-      </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>1</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="104"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="95"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21">
+        <v>3</v>
+      </c>
+      <c r="C8" s="93"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="93"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
-        <v>13</v>
-      </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="92"/>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C10" s="94"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
@@ -3236,158 +3443,167 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="127" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="128"/>
+      <c r="H13" s="108" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="115" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="116"/>
+    </row>
+    <row r="14" spans="2:14" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="96" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="117"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="120"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="26">
+        <f>SUM(C16:D16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="24">
+        <v>2</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="38">
+        <v>0.83</v>
+      </c>
+      <c r="F16" s="25"/>
+      <c r="G16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="104" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="75"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="83" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="72" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="76"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="81"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
-        <f>SUM(C16:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="26">
-        <v>0</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0</v>
-      </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="H16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="29">
+        <v>73</v>
+      </c>
+      <c r="I16" s="26">
         <f>SUM(J16:K16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="24">
         <v>0</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="27">
         <v>0</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="28">
+        <f>-E16</f>
+        <v>-0.83</v>
+      </c>
       <c r="M16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="32">
+        <v>73</v>
+      </c>
+      <c r="N16" s="29">
         <f>C16</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="35">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="E4:J4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3395,12 +3611,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3548,15 +3761,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3580,10 +3797,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab3/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD08A783-DD09-4F64-8A04-F1C19801E6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648FA58-A2EF-4218-80C2-B9DCF53596D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="117">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -588,7 +588,7 @@
     <t>1, 2, 3, 4, 6, 7, 8, 9, 10, 8, 9, 10, 5</t>
   </si>
   <si>
-    <t>Loop condition</t>
+    <t>Payment p:l</t>
   </si>
 </sst>
 </file>
@@ -2232,8 +2232,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2627,7 @@
   <dimension ref="B1:AH14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="J12" sqref="J12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,12 +2641,12 @@
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" customWidth="1"/>
     <col min="16" max="16" width="14.7109375" customWidth="1"/>
     <col min="17" max="17" width="6.140625" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" customWidth="1"/>
@@ -2921,7 +2921,9 @@
       </c>
       <c r="K10" s="74"/>
       <c r="L10" s="75"/>
-      <c r="M10" s="73"/>
+      <c r="M10" s="73" t="s">
+        <v>99</v>
+      </c>
       <c r="N10" s="74"/>
       <c r="O10" s="75"/>
       <c r="P10" s="16" t="s">
@@ -2973,7 +2975,9 @@
       <c r="I11" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="73"/>
+      <c r="J11" s="73" t="s">
+        <v>99</v>
+      </c>
       <c r="K11" s="74"/>
       <c r="L11" s="75"/>
       <c r="M11" s="73" t="s">
@@ -3149,7 +3153,9 @@
       </c>
       <c r="K14" s="74"/>
       <c r="L14" s="75"/>
-      <c r="M14" s="73"/>
+      <c r="M14" s="73" t="s">
+        <v>99</v>
+      </c>
       <c r="N14" s="74"/>
       <c r="O14" s="75"/>
       <c r="P14" s="16"/>
@@ -3242,8 +3248,8 @@
   </sheetPr>
   <dimension ref="B1:N16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
